--- a/extracted_data/word_countings/output_Siemens Energy.xlsx
+++ b/extracted_data/word_countings/output_Siemens Energy.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Digitalisierung</t>
-  </si>
-  <si>
-    <t>Künstliche Intelligenz</t>
-  </si>
-  <si>
-    <t>Technologie</t>
-  </si>
-  <si>
-    <t>KI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Processing</t>
   </si>
   <si>
     <t>AI</t>
   </si>
   <si>
-    <t>Internet</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Adjectives</t>
   </si>
   <si>
     <t>2019</t>
@@ -395,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,54 +414,45 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>5242</v>
+      </c>
+      <c r="D2">
+        <v>702</v>
+      </c>
+      <c r="E2">
+        <v>287</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>186</v>
-      </c>
-      <c r="E2">
-        <v>484</v>
-      </c>
-      <c r="F2">
-        <v>4618</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+      <c r="C3">
+        <v>269</v>
+      </c>
+      <c r="D3">
+        <v>118</v>
+      </c>
+      <c r="E3">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>19</v>
-      </c>
       <c r="F3">
-        <v>217</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
